--- a/7rmart/src/test/resources/testdata/TestData.xlsx
+++ b/7rmart/src/test/resources/testdata/TestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/navamivimaldassuprabha/git/7martProject/7rmart/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9879FB-28C5-9342-906A-C4BFFE4CC6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29252421-D920-FB4D-A0D3-06BBDF8FC57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="2140" windowWidth="22560" windowHeight="17440" xr2:uid="{F0857327-345F-2843-87FD-6F8D3CE0976B}"/>
+    <workbookView xWindow="14100" yWindow="1560" windowWidth="22560" windowHeight="17440" activeTab="1" xr2:uid="{F0857327-345F-2843-87FD-6F8D3CE0976B}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="AdminUser" sheetId="2" r:id="rId2"/>
-    <sheet name="ListPage" sheetId="3" r:id="rId3"/>
+    <sheet name="ListSubCat" sheetId="4" r:id="rId2"/>
+    <sheet name="AdminUser" sheetId="2" r:id="rId3"/>
+    <sheet name="ListPage" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>username</t>
   </si>
@@ -113,6 +114,18 @@
   </si>
   <si>
     <t>Lavender</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-sub-category</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Electronics</t>
   </si>
 </sst>
 </file>
@@ -497,7 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A473E0-43E6-F44A-9EA2-D154C0D9EF53}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -562,6 +575,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BB38AA-5724-094D-9149-C8D7CAEF2840}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{FC94FB74-6D93-7644-A3A2-22F864BE179F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1342328-B3D2-AD4C-9F01-0D615A6D50ED}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -625,7 +672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75634DAA-CDB5-3046-818D-BB239688F4A9}">
   <dimension ref="A1:E3"/>
   <sheetViews>

--- a/7rmart/src/test/resources/testdata/TestData.xlsx
+++ b/7rmart/src/test/resources/testdata/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/navamivimaldassuprabha/git/7martProject/7rmart/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29252421-D920-FB4D-A0D3-06BBDF8FC57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26322B9B-A162-0742-BB59-1587B12AE580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="1560" windowWidth="22560" windowHeight="17440" activeTab="1" xr2:uid="{F0857327-345F-2843-87FD-6F8D3CE0976B}"/>
+    <workbookView xWindow="11640" yWindow="1560" windowWidth="22560" windowHeight="17440" activeTab="2" xr2:uid="{F0857327-345F-2843-87FD-6F8D3CE0976B}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>imavan"</t>
   </si>
   <si>
-    <t>Darwin</t>
-  </si>
-  <si>
     <t>https://groceryapp.uniqassosiates.com/admin/list-page</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Electronics</t>
+  </si>
+  <si>
+    <t>Juliet</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BB38AA-5724-094D-9149-C8D7CAEF2840}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -586,18 +586,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1342328-B3D2-AD4C-9F01-0D615A6D50ED}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,7 +651,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -693,38 +693,38 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
